--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N2">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O2">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P2">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q2">
-        <v>29.68606537319867</v>
+        <v>134.32150371145</v>
       </c>
       <c r="R2">
-        <v>267.174588358788</v>
+        <v>1208.89353340305</v>
       </c>
       <c r="S2">
-        <v>0.001285301074598079</v>
+        <v>0.005778077394307064</v>
       </c>
       <c r="T2">
-        <v>0.001285301074598079</v>
+        <v>0.005778077394307063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
         <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q3">
-        <v>602.3425116167506</v>
+        <v>622.5640409703</v>
       </c>
       <c r="R3">
-        <v>5421.082604550755</v>
+        <v>5603.0763687327</v>
       </c>
       <c r="S3">
-        <v>0.02607928897697824</v>
+        <v>0.02678069491662717</v>
       </c>
       <c r="T3">
-        <v>0.02607928897697824</v>
+        <v>0.02678069491662717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N4">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q4">
-        <v>139.6168244169502</v>
+        <v>259.3189078711</v>
       </c>
       <c r="R4">
-        <v>1256.551419752552</v>
+        <v>2333.870170839899</v>
       </c>
       <c r="S4">
-        <v>0.006044912055509019</v>
+        <v>0.01115506213141562</v>
       </c>
       <c r="T4">
-        <v>0.006044912055509018</v>
+        <v>0.01115506213141562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N5">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q5">
-        <v>3741.706726812445</v>
+        <v>2069.571705921499</v>
       </c>
       <c r="R5">
-        <v>33675.360541312</v>
+        <v>18626.1453532935</v>
       </c>
       <c r="S5">
-        <v>0.1620025967181485</v>
+        <v>0.08902629258507304</v>
       </c>
       <c r="T5">
-        <v>0.1620025967181485</v>
+        <v>0.08902629258507304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N6">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q6">
-        <v>223.7982632977544</v>
+        <v>265.7456714687499</v>
       </c>
       <c r="R6">
-        <v>2014.18436967979</v>
+        <v>2391.71104321875</v>
       </c>
       <c r="S6">
-        <v>0.009689669031365932</v>
+        <v>0.01143152075074369</v>
       </c>
       <c r="T6">
-        <v>0.00968966903136593</v>
+        <v>0.01143152075074368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N7">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q7">
-        <v>81.39597327541044</v>
+        <v>235.675256652</v>
       </c>
       <c r="R7">
-        <v>732.5637594786939</v>
+        <v>2121.077309868</v>
       </c>
       <c r="S7">
-        <v>0.003524156219547157</v>
+        <v>0.0101379885962545</v>
       </c>
       <c r="T7">
-        <v>0.003524156219547157</v>
+        <v>0.0101379885962545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O8">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P8">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q8">
-        <v>27.35991578771601</v>
+        <v>119.7752662565447</v>
       </c>
       <c r="R8">
-        <v>246.239242089444</v>
+        <v>1077.977396308902</v>
       </c>
       <c r="S8">
-        <v>0.001184587068740098</v>
+        <v>0.00515234522568151</v>
       </c>
       <c r="T8">
-        <v>0.001184587068740098</v>
+        <v>0.005152345225681509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
         <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q9">
-        <v>555.143977014692</v>
+        <v>555.1439770146922</v>
       </c>
       <c r="R9">
-        <v>4996.295793132228</v>
+        <v>4996.295793132229</v>
       </c>
       <c r="S9">
-        <v>0.02403576025463535</v>
+        <v>0.0238805014501999</v>
       </c>
       <c r="T9">
-        <v>0.02403576025463534</v>
+        <v>0.0238805014501999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N10">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q10">
-        <v>128.6766875493307</v>
+        <v>231.2361787010707</v>
       </c>
       <c r="R10">
-        <v>1158.090187943976</v>
+        <v>2081.125608309636</v>
       </c>
       <c r="S10">
-        <v>0.005571243029471759</v>
+        <v>0.009947033795637232</v>
       </c>
       <c r="T10">
-        <v>0.005571243029471758</v>
+        <v>0.009947033795637232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N11">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q11">
-        <v>3448.512952489275</v>
+        <v>1845.449129621594</v>
       </c>
       <c r="R11">
-        <v>31036.61657240348</v>
+        <v>16609.04216659434</v>
       </c>
       <c r="S11">
-        <v>0.1493083488120835</v>
+        <v>0.07938526299643572</v>
       </c>
       <c r="T11">
-        <v>0.1493083488120835</v>
+        <v>0.07938526299643572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N12">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q12">
-        <v>206.2618120753634</v>
+        <v>236.9669611879167</v>
       </c>
       <c r="R12">
-        <v>1856.35630867827</v>
+        <v>2132.70265069125</v>
       </c>
       <c r="S12">
-        <v>0.00893040304857505</v>
+        <v>0.01019355355475242</v>
       </c>
       <c r="T12">
-        <v>0.008930403048575048</v>
+        <v>0.01019355355475241</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N13">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q13">
-        <v>75.01792326729134</v>
+        <v>210.15299736528</v>
       </c>
       <c r="R13">
-        <v>675.1613094056221</v>
+        <v>1891.37697628752</v>
       </c>
       <c r="S13">
-        <v>0.003248009332911353</v>
+        <v>0.009040103407647358</v>
       </c>
       <c r="T13">
-        <v>0.003248009332911353</v>
+        <v>0.009040103407647358</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N14">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O14">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P14">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q14">
-        <v>27.71861438596</v>
+        <v>186.8742656435679</v>
       </c>
       <c r="R14">
-        <v>249.46752947364</v>
+        <v>1681.868390792111</v>
       </c>
       <c r="S14">
-        <v>0.001200117442603522</v>
+        <v>0.008038727531016983</v>
       </c>
       <c r="T14">
-        <v>0.001200117442603522</v>
+        <v>0.008038727531016981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
         <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q15">
-        <v>562.4221195325198</v>
+        <v>866.1397822223726</v>
       </c>
       <c r="R15">
-        <v>5061.799075792679</v>
+        <v>7795.258040001354</v>
       </c>
       <c r="S15">
-        <v>0.02435087794644262</v>
+        <v>0.03725853685140456</v>
       </c>
       <c r="T15">
-        <v>0.0243508779464426</v>
+        <v>0.03725853685140456</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N16">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q16">
-        <v>130.3636864351733</v>
+        <v>360.7764143260775</v>
       </c>
       <c r="R16">
-        <v>1173.27317791656</v>
+        <v>3246.987728934698</v>
       </c>
       <c r="S16">
-        <v>0.005644284082691862</v>
+        <v>0.01551943647455586</v>
       </c>
       <c r="T16">
-        <v>0.005644284082691861</v>
+        <v>0.01551943647455586</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N17">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q17">
-        <v>3493.724230611685</v>
+        <v>2879.28352538104</v>
       </c>
       <c r="R17">
-        <v>31443.51807550517</v>
+        <v>25913.55172842937</v>
       </c>
       <c r="S17">
-        <v>0.1512658363950338</v>
+        <v>0.1238574806722237</v>
       </c>
       <c r="T17">
-        <v>0.1512658363950338</v>
+        <v>0.1238574806722237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N18">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q18">
-        <v>208.9659805909666</v>
+        <v>369.7176239953472</v>
       </c>
       <c r="R18">
-        <v>1880.6938253187</v>
+        <v>3327.458615958125</v>
       </c>
       <c r="S18">
-        <v>0.00904748392996855</v>
+        <v>0.01590405844527731</v>
       </c>
       <c r="T18">
-        <v>0.009047483929968549</v>
+        <v>0.01590405844527731</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N19">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q19">
-        <v>76.00143594064664</v>
+        <v>327.88227722504</v>
       </c>
       <c r="R19">
-        <v>684.0129234658199</v>
+        <v>2950.94049502536</v>
       </c>
       <c r="S19">
-        <v>0.003290591934547933</v>
+        <v>0.01410443690459095</v>
       </c>
       <c r="T19">
-        <v>0.003290591934547933</v>
+        <v>0.01410443690459095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N20">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O20">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P20">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q20">
-        <v>13.725986656658</v>
+        <v>25.03344984037545</v>
       </c>
       <c r="R20">
-        <v>123.533879909922</v>
+        <v>225.301048563379</v>
       </c>
       <c r="S20">
-        <v>0.0005942864161327724</v>
+        <v>0.001076858184486384</v>
       </c>
       <c r="T20">
-        <v>0.0005942864161327722</v>
+        <v>0.001076858184486384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
         <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q21">
-        <v>278.505931090946</v>
+        <v>116.0270341041673</v>
       </c>
       <c r="R21">
-        <v>2506.553379818514</v>
+        <v>1044.243306937506</v>
       </c>
       <c r="S21">
-        <v>0.01205831652032642</v>
+        <v>0.004991108380724864</v>
       </c>
       <c r="T21">
-        <v>0.01205831652032641</v>
+        <v>0.004991108380724864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N22">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q22">
-        <v>64.55482209919867</v>
+        <v>48.32917063523577</v>
       </c>
       <c r="R22">
-        <v>580.993398892788</v>
+        <v>434.962535717122</v>
       </c>
       <c r="S22">
-        <v>0.002794994256446577</v>
+        <v>0.002078964876189518</v>
       </c>
       <c r="T22">
-        <v>0.002794994256446577</v>
+        <v>0.002078964876189518</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N23">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q23">
-        <v>1730.058057869904</v>
+        <v>385.7053268443255</v>
       </c>
       <c r="R23">
-        <v>15570.52252082914</v>
+        <v>3471.34794159893</v>
       </c>
       <c r="S23">
-        <v>0.07490536226147429</v>
+        <v>0.01659179780097294</v>
       </c>
       <c r="T23">
-        <v>0.07490536226147428</v>
+        <v>0.01659179780097294</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N24">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q24">
-        <v>103.4779091533483</v>
+        <v>49.52692423173611</v>
       </c>
       <c r="R24">
-        <v>931.3011823801352</v>
+        <v>445.742318085625</v>
       </c>
       <c r="S24">
-        <v>0.004480225525341498</v>
+        <v>0.002130488368621197</v>
       </c>
       <c r="T24">
-        <v>0.004480225525341498</v>
+        <v>0.002130488368621197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N25">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q25">
-        <v>37.63516751171233</v>
+        <v>43.92271194856</v>
       </c>
       <c r="R25">
-        <v>338.716507605411</v>
+        <v>395.30440753704</v>
       </c>
       <c r="S25">
-        <v>0.001629468932220116</v>
+        <v>0.001889413250999821</v>
       </c>
       <c r="T25">
-        <v>0.001629468932220116</v>
+        <v>0.001889413250999821</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N26">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O26">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P26">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q26">
-        <v>22.59199504286067</v>
+        <v>123.5321744031963</v>
       </c>
       <c r="R26">
-        <v>203.327955385746</v>
+        <v>1111.789569628766</v>
       </c>
       <c r="S26">
-        <v>0.0009781530539954648</v>
+        <v>0.005313955283898904</v>
       </c>
       <c r="T26">
-        <v>0.0009781530539954644</v>
+        <v>0.005313955283898903</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
         <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q27">
-        <v>458.4008983836446</v>
+        <v>572.5567951615027</v>
       </c>
       <c r="R27">
-        <v>4125.608085452801</v>
+        <v>5153.011156453525</v>
       </c>
       <c r="S27">
-        <v>0.0198471289435734</v>
+        <v>0.02462954466461627</v>
       </c>
       <c r="T27">
-        <v>0.01984712894357339</v>
+        <v>0.02462954466461627</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N28">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q28">
-        <v>106.2526328590316</v>
+        <v>238.4892043942209</v>
       </c>
       <c r="R28">
-        <v>956.273695731284</v>
+        <v>2146.402839547988</v>
       </c>
       <c r="S28">
-        <v>0.004600361195589236</v>
+        <v>0.01025903554249042</v>
       </c>
       <c r="T28">
-        <v>0.004600361195589235</v>
+        <v>0.01025903554249042</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N29">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q29">
-        <v>2847.55216837538</v>
+        <v>1903.334059340358</v>
       </c>
       <c r="R29">
-        <v>25627.96951537842</v>
+        <v>17130.00653406322</v>
       </c>
       <c r="S29">
-        <v>0.123288883722909</v>
+        <v>0.08187528577489971</v>
       </c>
       <c r="T29">
-        <v>0.123288883722909</v>
+        <v>0.08187528577489971</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N30">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q30">
-        <v>170.3172579950061</v>
+        <v>244.3997403818056</v>
       </c>
       <c r="R30">
-        <v>1532.855321955055</v>
+        <v>2199.59766343625</v>
       </c>
       <c r="S30">
-        <v>0.007374131666543327</v>
+        <v>0.01051328771682184</v>
       </c>
       <c r="T30">
-        <v>0.007374131666543326</v>
+        <v>0.01051328771682183</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N31">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q31">
-        <v>61.9448014288581</v>
+        <v>216.74472145424</v>
       </c>
       <c r="R31">
-        <v>557.5032128597229</v>
+        <v>1950.70249308816</v>
       </c>
       <c r="S31">
-        <v>0.002681989641987276</v>
+        <v>0.009323658094689491</v>
       </c>
       <c r="T31">
-        <v>0.002681989641987275</v>
+        <v>0.009323658094689491</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N32">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O32">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P32">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q32">
-        <v>21.210694812948</v>
+        <v>280.9307125488072</v>
       </c>
       <c r="R32">
-        <v>190.896253316532</v>
+        <v>2528.376412939264</v>
       </c>
       <c r="S32">
-        <v>0.0009183476655908369</v>
+        <v>0.01208473218876322</v>
       </c>
       <c r="T32">
-        <v>0.0009183476655908366</v>
+        <v>0.01208473218876322</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N33">
         <v>18.956886</v>
       </c>
       <c r="O33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q33">
-        <v>430.373746946676</v>
+        <v>1302.080119745877</v>
       </c>
       <c r="R33">
-        <v>3873.363722520084</v>
+        <v>11718.7210777129</v>
       </c>
       <c r="S33">
-        <v>0.0186336529437401</v>
+        <v>0.05601128261370826</v>
       </c>
       <c r="T33">
-        <v>0.0186336529437401</v>
+        <v>0.05601128261370826</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N34">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q34">
-        <v>99.75622623719201</v>
+        <v>542.3602591741724</v>
       </c>
       <c r="R34">
-        <v>897.8060361347282</v>
+        <v>4881.242332567552</v>
       </c>
       <c r="S34">
-        <v>0.004319089888425206</v>
+        <v>0.02333058718458697</v>
       </c>
       <c r="T34">
-        <v>0.004319089888425205</v>
+        <v>0.02333058718458697</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N35">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q35">
-        <v>2673.449595432926</v>
+        <v>4328.467430385208</v>
       </c>
       <c r="R35">
-        <v>24061.04635889634</v>
+        <v>38956.20687346688</v>
       </c>
       <c r="S35">
-        <v>0.1157508613787537</v>
+        <v>0.1861966931611354</v>
       </c>
       <c r="T35">
-        <v>0.1157508613787537</v>
+        <v>0.1861966931611354</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N36">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q36">
-        <v>159.90386744759</v>
+        <v>555.8017054577778</v>
       </c>
       <c r="R36">
-        <v>1439.13480702831</v>
+        <v>5002.215349120001</v>
       </c>
       <c r="S36">
-        <v>0.006923268883195585</v>
+        <v>0.02390879480415721</v>
       </c>
       <c r="T36">
-        <v>0.006923268883195583</v>
+        <v>0.0239087948041572</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N37">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q37">
-        <v>58.157425931774</v>
+        <v>492.91004010496</v>
       </c>
       <c r="R37">
-        <v>523.416833385966</v>
+        <v>4436.19036094464</v>
       </c>
       <c r="S37">
-        <v>0.00251800974990284</v>
+        <v>0.021203398424393</v>
       </c>
       <c r="T37">
-        <v>0.002518009749902839</v>
+        <v>0.021203398424393</v>
       </c>
     </row>
   </sheetData>
